--- a/02_Projectmanagement/Projectplan V0.5.xlsx
+++ b/02_Projectmanagement/Projectplan V0.5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{F21ACC07-CC2F-4BC8-A3A0-5E700C1CDE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F5A3032-0A1F-4D03-B501-D3987221B56B}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{F21ACC07-CC2F-4BC8-A3A0-5E700C1CDE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{389AE994-48A7-4324-BFF0-3C2653F9E954}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.05</c:v>
@@ -3245,41 +3245,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="18" max="19" width="11.88671875" customWidth="1"/>
-    <col min="20" max="29" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="11" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="18" max="19" width="11.90625" customWidth="1"/>
+    <col min="20" max="29" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:25" ht="33.5" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="25" t="s">
         <v>31</v>
       </c>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="E6" s="6"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
         <v>86</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>87</v>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -3374,7 +3374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -3425,7 +3425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3450,7 +3450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:32" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:32" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:32" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:32" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="AF18" s="6"/>
     </row>
-    <row r="19" spans="2:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3630,7 +3630,7 @@
       <c r="AB19" s="3"/>
       <c r="AD19" s="12"/>
     </row>
-    <row r="20" spans="2:32" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:32" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="21"/>
@@ -3655,7 +3655,7 @@
       <c r="AB20" s="3"/>
       <c r="AD20" s="12"/>
     </row>
-    <row r="21" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
@@ -3744,11 +3744,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -3837,11 +3837,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B24" s="15"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E25" s="33" t="s">
         <v>84</v>
       </c>
@@ -3857,12 +3857,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>87</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>116</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>117</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>118</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>119</v>
       </c>
@@ -3910,15 +3910,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>62</v>
       </c>
       <c r="D35">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>121</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>122</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>81</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>120</v>
       </c>
